--- a/assignment_01c/code_prototype.xlsx
+++ b/assignment_01c/code_prototype.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ripleycleghorn/Desktop/Masters/Major Studio 1/msdv-major-studio/assignment_01c/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7D3071AE-9CEE-CB4A-96BD-B45E0458F4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D162CDFE-F68A-C845-B93A-6E354F18FB5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heading" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Pendant Detail'!$A$6:$I$185</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Pendant Detail'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -557,7 +557,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1008,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1188,11 +1188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="183" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="183" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3766,7 +3766,7 @@
       <c r="B101" s="5">
         <v>48</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E101" t="s">
@@ -3795,7 +3795,7 @@
       <c r="C102" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E102" t="s">
@@ -3821,7 +3821,7 @@
       <c r="B103" s="5">
         <v>49</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E103" t="s">
@@ -3850,7 +3850,7 @@
       <c r="C104" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E104" t="s">
@@ -3873,7 +3873,7 @@
       <c r="B105" s="5">
         <v>50</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E105" t="s">
@@ -3899,7 +3899,7 @@
       <c r="B106" s="5">
         <v>51</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E106" t="s">
@@ -3925,7 +3925,7 @@
       <c r="B107" s="5">
         <v>52</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E107" t="s">
@@ -3951,7 +3951,7 @@
       <c r="B108" s="5">
         <v>53</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E108" t="s">
@@ -3977,7 +3977,7 @@
       <c r="B109" s="5">
         <v>54</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E109" t="s">
@@ -4006,7 +4006,7 @@
       <c r="C110" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E110" t="s">
@@ -5975,7 +5975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/assignment_01c/code_prototype.xlsx
+++ b/assignment_01c/code_prototype.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ripleycleghorn/Desktop/Masters/Major Studio 1/msdv-major-studio/assignment_01c/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D162CDFE-F68A-C845-B93A-6E354F18FB5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F87EC-6675-B24B-9267-EF0109C635AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="183" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109:D110"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177:D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4032,7 +4032,7 @@
       <c r="B111" s="5">
         <v>55</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E111" t="s">
@@ -4058,7 +4058,7 @@
       <c r="B112" s="5">
         <v>56</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E112" t="s">
@@ -4084,7 +4084,7 @@
       <c r="B113" s="5">
         <v>57</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E113" t="s">
@@ -4110,7 +4110,7 @@
       <c r="B114" s="5">
         <v>58</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E114" t="s">
@@ -4136,7 +4136,7 @@
       <c r="B115" s="5">
         <v>59</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E115" t="s">
@@ -4162,7 +4162,7 @@
       <c r="B116" s="5">
         <v>60</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E116" t="s">
@@ -4188,7 +4188,7 @@
       <c r="B117" s="5">
         <v>61</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E117" t="s">
@@ -4214,7 +4214,7 @@
       <c r="B118" s="5">
         <v>62</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E118" t="s">
@@ -4243,7 +4243,7 @@
       <c r="C119" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E119" t="s">
@@ -4272,7 +4272,7 @@
       <c r="C120" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E120" t="s">
@@ -4295,7 +4295,7 @@
       <c r="B121" s="5">
         <v>63</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E121" t="s">
@@ -4321,7 +4321,7 @@
       <c r="B122" s="5">
         <v>64</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E122" t="s">
@@ -4347,7 +4347,7 @@
       <c r="B123" s="5">
         <v>65</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="9" t="s">
         <v>96</v>
       </c>
       <c r="E123" t="s">
@@ -4376,7 +4376,7 @@
       <c r="C124" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E124" t="s">
@@ -4405,7 +4405,7 @@
       <c r="C125" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E125" t="s">
@@ -4431,7 +4431,7 @@
       <c r="B126" s="5">
         <v>66</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E126" t="s">
@@ -4457,7 +4457,7 @@
       <c r="B127" s="5">
         <v>67</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E127" t="s">
@@ -4483,7 +4483,7 @@
       <c r="B128" s="5">
         <v>68</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E128" t="s">
@@ -4512,7 +4512,7 @@
       <c r="C129" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E129" t="s">
@@ -4541,7 +4541,7 @@
       <c r="C130" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E130" t="s">
@@ -4567,7 +4567,7 @@
       <c r="B131" s="5">
         <v>69</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E131" t="s">
@@ -4590,7 +4590,7 @@
       <c r="B132" s="5">
         <v>70</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E132" t="s">
@@ -4616,7 +4616,7 @@
       <c r="B133" s="5">
         <v>71</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E133" t="s">
@@ -4645,7 +4645,7 @@
       <c r="C134" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E134" t="s">
@@ -4674,7 +4674,7 @@
       <c r="C135" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E135" t="s">
@@ -4700,7 +4700,7 @@
       <c r="B136" s="5">
         <v>72</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E136" t="s">
@@ -4726,7 +4726,7 @@
       <c r="B137" s="5">
         <v>73</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E137" t="s">
@@ -4755,7 +4755,7 @@
       <c r="C138" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E138" t="s">
@@ -4784,7 +4784,7 @@
       <c r="C139" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E139" t="s">
@@ -4810,7 +4810,7 @@
       <c r="B140" s="5">
         <v>74</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E140" t="s">
@@ -4839,7 +4839,7 @@
       <c r="C141" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E141" t="s">
@@ -4865,7 +4865,7 @@
       <c r="B142" s="5">
         <v>75</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E142" t="s">
@@ -4891,7 +4891,7 @@
       <c r="B143" s="5">
         <v>76</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E143" t="s">
@@ -4920,7 +4920,7 @@
       <c r="C144" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E144" t="s">
@@ -4946,7 +4946,7 @@
       <c r="B145" s="5">
         <v>77</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E145" t="s">
@@ -4972,7 +4972,7 @@
       <c r="B146" s="5">
         <v>78</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E146" t="s">
@@ -5001,7 +5001,7 @@
       <c r="C147" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E147" t="s">
@@ -5027,7 +5027,7 @@
       <c r="B148" s="5">
         <v>79</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E148" t="s">
@@ -5053,7 +5053,7 @@
       <c r="B149" s="5">
         <v>80</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E149" t="s">
@@ -5082,7 +5082,7 @@
       <c r="C150" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E150" t="s">
@@ -5108,7 +5108,7 @@
       <c r="B151" s="5">
         <v>81</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E151" t="s">
@@ -5134,7 +5134,7 @@
       <c r="B152" s="5">
         <v>82</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E152" t="s">
@@ -5163,7 +5163,7 @@
       <c r="C153" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E153" t="s">
@@ -5186,7 +5186,7 @@
       <c r="B154" s="5">
         <v>83</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E154" t="s">
@@ -5212,7 +5212,7 @@
       <c r="B155" s="5">
         <v>84</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E155" t="s">
@@ -5241,7 +5241,7 @@
       <c r="C156" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E156" t="s">
@@ -5264,7 +5264,7 @@
       <c r="B157" s="5">
         <v>85</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E157" t="s">
@@ -5293,7 +5293,7 @@
       <c r="C158" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E158" t="s">
@@ -5316,7 +5316,7 @@
       <c r="B159" s="5">
         <v>86</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="9" t="s">
         <v>106</v>
       </c>
       <c r="E159" t="s">
@@ -5345,7 +5345,7 @@
       <c r="C160" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E160" t="s">
@@ -5371,7 +5371,7 @@
       <c r="B161" s="5">
         <v>87</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E161" t="s">
@@ -5400,7 +5400,7 @@
       <c r="C162" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E162" t="s">
@@ -5423,7 +5423,7 @@
       <c r="B163" s="5">
         <v>88</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E163" t="s">
@@ -5452,7 +5452,7 @@
       <c r="C164" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E164" t="s">
@@ -5475,7 +5475,7 @@
       <c r="B165" s="5">
         <v>89</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E165" t="s">
@@ -5501,7 +5501,7 @@
       <c r="B166" s="5">
         <v>90</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="9" t="s">
         <v>108</v>
       </c>
       <c r="E166" t="s">
@@ -5527,7 +5527,7 @@
       <c r="B167" s="5">
         <v>91</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E167" t="s">
@@ -5553,7 +5553,7 @@
       <c r="B168" s="5">
         <v>92</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E168" t="s">
@@ -5579,7 +5579,7 @@
       <c r="B169" s="5">
         <v>93</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E169" t="s">
@@ -5605,7 +5605,7 @@
       <c r="B170" s="5">
         <v>94</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E170" t="s">
@@ -5631,7 +5631,7 @@
       <c r="B171" s="5">
         <v>95</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E171" t="s">
@@ -5657,7 +5657,7 @@
       <c r="B172" s="5">
         <v>96</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="9" t="s">
         <v>111</v>
       </c>
       <c r="E172" t="s">
@@ -5683,7 +5683,7 @@
       <c r="B173" s="5">
         <v>97</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E173" t="s">
@@ -5706,7 +5706,7 @@
       <c r="B174" s="5">
         <v>98</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E174" t="s">
@@ -5732,7 +5732,7 @@
       <c r="B175" s="5">
         <v>99</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E175" t="s">
@@ -5761,7 +5761,7 @@
       <c r="C176" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E176" t="s">
@@ -5787,7 +5787,7 @@
       <c r="B177" s="5">
         <v>100</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E177" t="s">
@@ -5813,7 +5813,7 @@
       <c r="B178" s="5">
         <v>101</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E178" t="s">
@@ -5839,7 +5839,7 @@
       <c r="B179" s="5">
         <v>102</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="9" t="s">
         <v>91</v>
       </c>
       <c r="E179" t="s">
@@ -5865,7 +5865,7 @@
       <c r="B180" s="5">
         <v>103</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="9" t="s">
         <v>96</v>
       </c>
       <c r="E180" t="s">
